--- a/backend/data/bbb_instagram.xlsx
+++ b/backend/data/bbb_instagram.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,11 @@
           <t>2023-01-28</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>2023-01-29</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -502,6 +507,9 @@
       <c r="H2" t="n">
         <v>542791</v>
       </c>
+      <c r="I2" t="n">
+        <v>544192</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -530,6 +538,9 @@
       <c r="H3" t="n">
         <v>580020</v>
       </c>
+      <c r="I3" t="n">
+        <v>580215</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -558,6 +569,9 @@
       <c r="H4" t="n">
         <v>1207849</v>
       </c>
+      <c r="I4" t="n">
+        <v>1214407</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -586,6 +600,9 @@
       <c r="H5" t="n">
         <v>251820</v>
       </c>
+      <c r="I5" t="n">
+        <v>256077</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -614,6 +631,9 @@
       <c r="H6" t="n">
         <v>3670505</v>
       </c>
+      <c r="I6" t="n">
+        <v>3686190</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -642,6 +662,9 @@
       <c r="H7" t="n">
         <v>1098843</v>
       </c>
+      <c r="I7" t="n">
+        <v>1120515</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -670,6 +693,9 @@
       <c r="H8" t="n">
         <v>10362792</v>
       </c>
+      <c r="I8" t="n">
+        <v>10406596</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -698,6 +724,9 @@
       <c r="H9" t="n">
         <v>1502536</v>
       </c>
+      <c r="I9" t="n">
+        <v>1554173</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -726,6 +755,9 @@
       <c r="H10" t="n">
         <v>223909</v>
       </c>
+      <c r="I10" t="n">
+        <v>228821</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -754,6 +786,9 @@
       <c r="H11" t="n">
         <v>325774</v>
       </c>
+      <c r="I11" t="n">
+        <v>327376</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -782,6 +817,9 @@
       <c r="H12" t="n">
         <v>516648</v>
       </c>
+      <c r="I12" t="n">
+        <v>534738</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -810,6 +848,9 @@
       <c r="H13" t="n">
         <v>218204</v>
       </c>
+      <c r="I13" t="n">
+        <v>225062</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -838,6 +879,9 @@
       <c r="H14" t="n">
         <v>582432</v>
       </c>
+      <c r="I14" t="n">
+        <v>586142</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -866,6 +910,9 @@
       <c r="H15" t="n">
         <v>7694020</v>
       </c>
+      <c r="I15" t="n">
+        <v>7705006</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -894,6 +941,9 @@
       <c r="H16" t="n">
         <v>1191073</v>
       </c>
+      <c r="I16" t="n">
+        <v>1199787</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -922,6 +972,9 @@
       <c r="H17" t="n">
         <v>123775</v>
       </c>
+      <c r="I17" t="n">
+        <v>128001</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -950,6 +1003,9 @@
       <c r="H18" t="n">
         <v>979016</v>
       </c>
+      <c r="I18" t="n">
+        <v>998288</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -978,6 +1034,9 @@
       <c r="H19" t="n">
         <v>235450</v>
       </c>
+      <c r="I19" t="n">
+        <v>243619</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1006,6 +1065,9 @@
       <c r="H20" t="n">
         <v>2894793</v>
       </c>
+      <c r="I20" t="n">
+        <v>2903908</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1034,6 +1096,9 @@
       <c r="H21" t="n">
         <v>353696</v>
       </c>
+      <c r="I21" t="n">
+        <v>375905</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1062,6 +1127,9 @@
       <c r="H22" t="n">
         <v>161498</v>
       </c>
+      <c r="I22" t="n">
+        <v>163379</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1089,6 +1157,9 @@
       </c>
       <c r="H23" t="n">
         <v>8620432</v>
+      </c>
+      <c r="I23" t="n">
+        <v>8625669</v>
       </c>
     </row>
   </sheetData>

--- a/backend/data/bbb_instagram.xlsx
+++ b/backend/data/bbb_instagram.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,11 @@
           <t>2023-01-29</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2023-01-30</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -510,6 +515,9 @@
       <c r="I2" t="n">
         <v>544192</v>
       </c>
+      <c r="J2" t="n">
+        <v>550329</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -541,6 +549,9 @@
       <c r="I3" t="n">
         <v>580215</v>
       </c>
+      <c r="J3" t="n">
+        <v>581129</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -572,6 +583,9 @@
       <c r="I4" t="n">
         <v>1214407</v>
       </c>
+      <c r="J4" t="n">
+        <v>1219118</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -603,6 +617,9 @@
       <c r="I5" t="n">
         <v>256077</v>
       </c>
+      <c r="J5" t="n">
+        <v>260217</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -634,6 +651,9 @@
       <c r="I6" t="n">
         <v>3686190</v>
       </c>
+      <c r="J6" t="n">
+        <v>3696806</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -665,6 +685,9 @@
       <c r="I7" t="n">
         <v>1120515</v>
       </c>
+      <c r="J7" t="n">
+        <v>1143591</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -696,6 +719,9 @@
       <c r="I8" t="n">
         <v>10406596</v>
       </c>
+      <c r="J8" t="n">
+        <v>10430404</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -727,6 +753,9 @@
       <c r="I9" t="n">
         <v>1554173</v>
       </c>
+      <c r="J9" t="n">
+        <v>1582435</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -758,6 +787,9 @@
       <c r="I10" t="n">
         <v>228821</v>
       </c>
+      <c r="J10" t="n">
+        <v>232308</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -789,6 +821,9 @@
       <c r="I11" t="n">
         <v>327376</v>
       </c>
+      <c r="J11" t="n">
+        <v>334394</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -820,6 +855,9 @@
       <c r="I12" t="n">
         <v>534738</v>
       </c>
+      <c r="J12" t="n">
+        <v>548614</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -851,6 +889,9 @@
       <c r="I13" t="n">
         <v>225062</v>
       </c>
+      <c r="J13" t="n">
+        <v>230786</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -882,6 +923,9 @@
       <c r="I14" t="n">
         <v>586142</v>
       </c>
+      <c r="J14" t="n">
+        <v>589477</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -913,6 +957,9 @@
       <c r="I15" t="n">
         <v>7705006</v>
       </c>
+      <c r="J15" t="n">
+        <v>7722138</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -944,6 +991,9 @@
       <c r="I16" t="n">
         <v>1199787</v>
       </c>
+      <c r="J16" t="n">
+        <v>1203038</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -975,6 +1025,9 @@
       <c r="I17" t="n">
         <v>128001</v>
       </c>
+      <c r="J17" t="n">
+        <v>134571</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1006,6 +1059,9 @@
       <c r="I18" t="n">
         <v>998288</v>
       </c>
+      <c r="J18" t="n">
+        <v>1014899</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1037,6 +1093,9 @@
       <c r="I19" t="n">
         <v>243619</v>
       </c>
+      <c r="J19" t="n">
+        <v>249142</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1068,6 +1127,9 @@
       <c r="I20" t="n">
         <v>2903908</v>
       </c>
+      <c r="J20" t="n">
+        <v>2910122</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1099,6 +1161,9 @@
       <c r="I21" t="n">
         <v>375905</v>
       </c>
+      <c r="J21" t="n">
+        <v>400513</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1130,6 +1195,9 @@
       <c r="I22" t="n">
         <v>163379</v>
       </c>
+      <c r="J22" t="n">
+        <v>166160</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1160,6 +1228,9 @@
       </c>
       <c r="I23" t="n">
         <v>8625669</v>
+      </c>
+      <c r="J23" t="n">
+        <v>8629920</v>
       </c>
     </row>
   </sheetData>
